--- a/DATA VIZ_FINAL/unemployment rate_NY state_1992 to 2017_average1.xlsx
+++ b/DATA VIZ_FINAL/unemployment rate_NY state_1992 to 2017_average1.xlsx
@@ -28,16 +28,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>number of the Muslim Legal Residents in the US</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Unemployment rate in the US</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>percentage of Muslim from Sub saharan Africa</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">number of the Muslim Legal Residents </t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -502,8 +502,8 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -525,13 +525,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.9" thickTop="1" x14ac:dyDescent="0.35">
@@ -889,11 +889,11 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
     <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 10, 2017 (01:06:08 AM)</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>